--- a/biology/Botanique/Parc_linéaire/Parc_linéaire.xlsx
+++ b/biology/Botanique/Parc_linéaire/Parc_linéaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_lin%C3%A9aire</t>
+          <t>Parc_linéaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un parc linéaire est un espace vert qui est beaucoup plus long que large.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_lin%C3%A9aire</t>
+          <t>Parc_linéaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parcs linéaires peuvent prendre des formes très différentes, leur caractéristique commune étant essentiellement de posséder une longueur totale nettement plus grande que leur largeur.
-Certains parcs linéaires résultent de la conversion d'anciennes voies ferrées en chemins destinées à un usage récréatif. D'autres utilisent des bandes d'espace public à proximité de canaux, cours d'eau, lignes électriques, routes[1], côtes[2], etc.
+Certains parcs linéaires résultent de la conversion d'anciennes voies ferrées en chemins destinées à un usage récréatif. D'autres utilisent des bandes d'espace public à proximité de canaux, cours d'eau, lignes électriques, routes, côtes, etc.
 Dans certaines villes, des parcs linéaires traversent des zones résidentielles : les façades des habitations sont tournées vers les rues tandis que leur face arrière est dirigée vers des parcs contenant un sentier, des arbres et de la pelouse : certaines villes canadiennes, comme Saskatoon, suivent ce principe. Dans les villes où le terrain inclut des plaines d'inondation, elles peuvent faire l'objet d'un traitement d'agrément : Milton Keynes, en Angleterre, fait grand usage de ce principe.
 Une voie-promenade peut faire référence à une route flanquée d'un parc linéaire.
 Une ceinture verte peut être considérée comme un parc linéaire.
